--- a/experiment/output/results/OfficeHome/RSC/DG/1.xlsx
+++ b/experiment/output/results/OfficeHome/RSC/DG/1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,23 +488,625 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>250211_21-16-34_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>56.071</v>
+      </c>
+      <c r="E2" t="n">
+        <v>54.696</v>
+      </c>
+      <c r="F2" t="n">
+        <v>54.754</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>250212_04-45-01_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>55.241</v>
+      </c>
+      <c r="E3" t="n">
+        <v>54.668</v>
+      </c>
+      <c r="F3" t="n">
+        <v>54.782</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>250212_08-20-57_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>51.375</v>
+      </c>
+      <c r="E4" t="n">
+        <v>50.859</v>
+      </c>
+      <c r="F4" t="n">
+        <v>42.526</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>250211_17-01-27_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>54.066</v>
+      </c>
+      <c r="E5" t="n">
+        <v>52.434</v>
+      </c>
+      <c r="F5" t="n">
+        <v>50.916</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>250212_07-14-36_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>6.873</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.873</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5.212</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>250212_13-48-53_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>250131_04-51-55_resnet50_EVE</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D8" t="n">
         <v>47.48</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E8" t="n">
         <v>47.48</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F8" t="n">
         <v>47.48</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>250212_05-57-48_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>52.864</v>
+      </c>
+      <c r="E9" t="n">
+        <v>52.32</v>
+      </c>
+      <c r="F9" t="n">
+        <v>51.69</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>250211_15-31-53_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>48.625</v>
+      </c>
+      <c r="E10" t="n">
+        <v>48.625</v>
+      </c>
+      <c r="F10" t="n">
+        <v>48.625</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>250211_18-24-57_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2.291</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.291</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.405</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>250212_10-59-09_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.348</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.348</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>250212_03-29-01_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>54.124</v>
+      </c>
+      <c r="E13" t="n">
+        <v>53.207</v>
+      </c>
+      <c r="F13" t="n">
+        <v>53.15</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>250211_19-56-09_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>55.212</v>
+      </c>
+      <c r="E14" t="n">
+        <v>53.379</v>
+      </c>
+      <c r="F14" t="n">
+        <v>51.861</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>250212_00-02-45_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>2.291</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.291</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.405</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>250212_09-29-47_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2.291</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.291</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.405</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>250212_02-21-26_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>53.379</v>
+      </c>
+      <c r="E17" t="n">
+        <v>51.06</v>
+      </c>
+      <c r="F17" t="n">
+        <v>49.542</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>250212_01-13-54_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2.291</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2.291</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.405</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>250212_12-37-23_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>51.632</v>
+      </c>
+      <c r="E19" t="n">
+        <v>50.773</v>
+      </c>
+      <c r="F19" t="n">
+        <v>51.661</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>250211_22-37-01_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>52.835</v>
+      </c>
+      <c r="E20" t="n">
+        <v>52.835</v>
+      </c>
+      <c r="F20" t="n">
+        <v>49.914</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>250211_13-50-47_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>56.157</v>
+      </c>
+      <c r="E21" t="n">
+        <v>54.611</v>
+      </c>
+      <c r="F21" t="n">
+        <v>54.41</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
